--- a/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Govt. H S ChintakiAurad</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S BenchincholiHumnabad</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Sri Veerbhadreshwar High School Chambol</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidayalaya Aurad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School AlgoodBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School(K) ManthalBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Amlapur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. HRPSBalnagar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. Adarsh Vidyalaya (R M S A) Janwada</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S HangaragaAurad</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Smt. IndirabaiGurutappa ShetkarHigh School</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt. High School AlgoodBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -809,6 +874,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>B P H S MadkattiBhalki</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -836,6 +906,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. Urdu High School TalmadgiHumnabad</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -863,6 +938,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High School TornaAurad</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -890,6 +970,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S LadhaBhalki</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -917,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Bhai Bansilal H S HalikhedHumanabad</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -944,6 +1034,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. High SchoolManthalBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -969,7 +1064,8 @@
           <t>PRADEEP KUMAR S GHANTE</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Shri Sangameshwar High School Bhalki</t>
         </is>
@@ -986,7 +1082,8 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -1015,6 +1112,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Sri Babu Jagajeevan Ram High School KandgulAurad</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1042,6 +1144,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S MurkiAurad</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1069,6 +1176,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>JIjamatGirls High School</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1096,6 +1208,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High School Chitta(K)Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1123,6 +1240,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Warwatti(B)Bhalki</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1150,6 +1272,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. High School EkambaAurad</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1177,6 +1304,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. Adarsh Vidyalaya RajolaBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1204,6 +1336,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>R M H S HulsoorBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1231,6 +1368,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H R P S Shamsheernagar</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1258,6 +1400,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Ramswamy Periyar High SchoolKolar (K)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1285,6 +1432,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Basava High SchoolManhalli</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1312,6 +1464,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G N P U C Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1339,6 +1496,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. H S WalakhindiHumnabad</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1366,6 +1528,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>V B H S HulsoorBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1393,6 +1560,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Matoshri Ahilyabai HolkarHigh School</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1420,6 +1592,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S YalladgundiBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1447,6 +1624,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt High School Khashampur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1474,6 +1656,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S HandikeraHumnabad</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1500,7 +1687,8 @@
           <t>SUNITA P NALURE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -1529,6 +1717,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. P U CollegeAurad(B)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1558,6 +1751,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Govt. HRPS YadalapurBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1582,7 +1780,8 @@
           <t>VAIJINATH P MEHTRE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>VAIJINATH P MEHTR</t>
         </is>
@@ -1600,6 +1799,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>Govt. H S ChandikapurBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -1629,6 +1833,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Humanabad</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1656,6 +1865,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Sri. R. Govt. High School MuchalumBasavakalyan</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1683,7 +1897,8 @@
           <t>CHANDRAKANT GADIPATIL</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Akka Mahadevi G H S Bidar</t>
         </is>
@@ -1714,6 +1929,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Sri Basaveshwar Kannada H S Basavakalyan</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1742,6 +1962,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>Rural High School Sindol</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,10 +1064,9 @@
           <t>PRADEEP KUMAR S GHANTE</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Shri Sangameshwar High School Bhalki</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1081,6 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>Bidar</t>
@@ -1687,7 +1685,6 @@
           <t>SUNITA P NALURE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>Bidar</t>
@@ -1780,7 +1777,6 @@
           <t>VAIJINATH P MEHTRE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>VAIJINATH P MEHTR</t>
@@ -1897,7 +1893,6 @@
           <t>CHANDRAKANT GADIPATIL</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>Akka Mahadevi G H S Bidar</t>

--- a/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-01)_46_3.xlsx
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Akka Mahadevi G H S Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
